--- a/eden-components/eden-solutions/eden-common-excel/src/test/resources/test/test-case.xlsx
+++ b/eden-components/eden-solutions/eden-common-excel/src/test/resources/test/test-case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sion1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Git\eden-architect\eden-components\eden-solutions\eden-common-excel\src\test\resources\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B5426C-5106-4E1A-950A-D8E1A37ECF1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B34BF-04A0-478A-88F7-69211C7FFC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="660" windowWidth="20160" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>用户名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,22 @@
   </si>
   <si>
     <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,6 +595,31 @@
         <v>40074</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40074</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
